--- a/CodeBasics-Excel-GitHub/PracticeSets/Excel_Basics-1_My_Expense_Budget.xlsx
+++ b/CodeBasics-Excel-GitHub/PracticeSets/Excel_Basics-1_My_Expense_Budget.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shubham-Data-Analytics\Data-Analytics-GitHub\CodeBasics-Excel-GitHub\PracticeSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD69EF4-1E91-4D33-AC4F-18A2F321393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F15DA67-C398-4DA7-9867-7408FAB9F999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4813ED4B-01F4-46B2-90B4-B4775552A3A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{4813ED4B-01F4-46B2-90B4-B4775552A3A2}"/>
   </bookViews>
   <sheets>
     <sheet name="May2024" sheetId="1" r:id="rId1"/>
-    <sheet name="June2024" sheetId="2" r:id="rId2"/>
+    <sheet name="Table &amp; Slicers" sheetId="2" r:id="rId2"/>
+    <sheet name="Charts 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Charts 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Chart 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Chart 4" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'May2024'!$A$2:$K$2</definedName>
+    <definedName name="MyExpense">Table4[]</definedName>
+    <definedName name="MyExprnse">Table4[]</definedName>
     <definedName name="Slicer_Category">#N/A</definedName>
     <definedName name="Slicer_Item">#N/A</definedName>
   </definedNames>
@@ -28,8 +34,8 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId3"/>
-        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="36">
   <si>
     <t>Subway Sandwith</t>
   </si>
@@ -131,6 +137,33 @@
   <si>
     <t>Saravanna Bhavan Dosa</t>
   </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Tata Motors</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Vedanta</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +220,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,11 +235,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -222,11 +270,237 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -244,6 +518,120 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -301,8 +689,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Expenses vs. Amount</a:t>
+              <a:t>Company</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -345,6 +738,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts 1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -355,157 +759,139 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'May2024'!$C$3:$C$13</c:f>
+              <c:f>'Charts 1'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Home Rent</c:v>
+                  <c:v>Tata Motors</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gas Bill</c:v>
+                  <c:v>Reliance</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Phone Bill</c:v>
+                  <c:v>Tesla</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Groceries</c:v>
+                  <c:v>Google</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Chotumal Samosa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Subway Sandwith</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Tondumal Pani Puri</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Olive Garden</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>tea-post</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Water Bill</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Groceries</c:v>
+                  <c:v>Vedanta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'May2024'!$D$3:$D$13</c:f>
+              <c:f>'Charts 1'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F65C-416C-BD18-E8B12E9EB540}"/>
+              <c16:uniqueId val="{00000000-F240-42A2-A345-22145C71586B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts 1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Charts 1'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tata Motors</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reliance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tesla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vedanta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Charts 1'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F240-42A2-A345-22145C71586B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -513,11 +899,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="662221343"/>
-        <c:axId val="662213183"/>
+        <c:axId val="799552304"/>
+        <c:axId val="799550864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="662221343"/>
+        <c:axId val="799552304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662213183"/>
+        <c:crossAx val="799550864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662213183"/>
+        <c:axId val="799550864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +1005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662221343"/>
+        <c:crossAx val="799552304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -631,15 +1017,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -696,13 +1106,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -710,13 +1126,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Expense</a:t>
+              <a:t>Expense by Category </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. Amount</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -733,13 +1144,441 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Charts 2'!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Expense by Category</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Charts 2'!$H$3:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Utility</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Charts 2'!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B528-43EA-A1DC-D4B9F1234E0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expense By Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -761,19 +1600,46 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-FC4B-48B6-8E70-60B989B96C6C}"/>
+                <c16:uniqueId val="{00000001-B038-466E-BF77-C245E563DD22}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -781,19 +1647,46 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-FC4B-48B6-8E70-60B989B96C6C}"/>
+                <c16:uniqueId val="{00000003-B038-466E-BF77-C245E563DD22}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -801,19 +1694,46 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-FC4B-48B6-8E70-60B989B96C6C}"/>
+                <c16:uniqueId val="{00000005-B038-466E-BF77-C245E563DD22}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -834,7 +1754,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -854,14 +1776,13 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -907,7 +1828,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D33-4DDE-BB68-AAB4D02E4A30}"/>
+              <c16:uniqueId val="{00000006-B038-466E-BF77-C245E563DD22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -948,9 +1869,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -971,6 +1891,1022 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expense by Category </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart 3'!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Expense by Category</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Chart 3'!$J$3:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Utility</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 3'!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA6E-4E2F-A93E-F3C5795C40FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="877095344"/>
+        <c:axId val="877107824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="877095344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877107824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="877107824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877095344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart 3'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Chart 3'!$C$2:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Item</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Home Rent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gas Bill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Phone Bill</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Chotumal Samosa</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Subway Sandwith</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tondumal Pani Puri</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Olive Garden</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>tea-post</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Water Bill</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 3'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B017-4854-B616-E52F0C6CC87B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="878694512"/>
+        <c:axId val="878696432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="878694512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="878696432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="878696432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="878694512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expense</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> By Date</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart 4'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Chart 4'!$G$8:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy;@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 4'!$H$8:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E9C-44AA-9321-17DE40A67938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="837589664"/>
+        <c:axId val="799334080"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="837589664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd/mm/yyyy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799334080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="799334080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837589664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1086,6 +3022,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1590,35 +3686,33 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1626,37 +3720,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1675,14 +3776,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1691,43 +3784,1024 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1765,7 +4839,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1808,23 +4882,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1929,8 +5002,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2062,20 +5135,1038 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2109,83 +6200,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F403E4DF-B5A9-ADE3-A87D-67A590AE5D23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>74294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>226695</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5AE5A8-5A61-04F3-B081-EDDBCDDA3E75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -2200,8 +6214,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Category">
@@ -2224,7 +6238,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2278,8 +6292,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Item">
@@ -2302,7 +6316,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2346,6 +6360,244 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44767</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>349567</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107632</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D046CD54-6853-012B-2421-0ACB40CA1F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>159067</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120016</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D276B321-0788-824A-5AAC-0D28763D0E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7033843-C786-4DB4-91BE-DDF858D29592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>386716</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E1C82C-3A8D-C5A4-ABFE-05ADF380227D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>170497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31CAAB4-97A8-65AF-D82B-A6560C54E7DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>149542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170497</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBB2D53-74CC-4940-2197-282EC1872F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Category" xr10:uid="{8672A568-8B61-4F8C-8C9B-1E52EE1501D3}" sourceName="Category">
   <extLst>
@@ -2377,13 +6629,42 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF222CC3-F2AB-4D26-B7A4-D724D31BF359}" name="MyExpenses" displayName="MyExpenses" ref="A1:E14" totalsRowCount="1">
   <autoFilter ref="A1:E13" xr:uid="{DF222CC3-F2AB-4D26-B7A4-D724D31BF359}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5DA20084-509B-4269-A225-0ED3AF576070}" name="Date" totalsRowLabel="Total" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1A6423D5-5B54-4F48-8C10-0A81788A91C7}" name="Category" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5DA20084-509B-4269-A225-0ED3AF576070}" name="Date" totalsRowLabel="Total" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{1A6423D5-5B54-4F48-8C10-0A81788A91C7}" name="Category" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{DB00C74D-B328-4793-B628-EB0BE23D33E7}" name="Item" totalsRowFunction="count"/>
     <tableColumn id="4" xr3:uid="{0B7D84AA-C676-4203-B9FC-A71C7A990AF8}" name="Amount" totalsRowFunction="sum"/>
     <tableColumn id="5" xr3:uid="{9398C0CC-A231-44B1-A850-6246F2576D4A}" name="Major Expense ?">
       <calculatedColumnFormula>IF(D2&gt;=100,"YES","NO")</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E292182-348E-4DA0-8740-297B6F6A7C8B}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:C6" xr:uid="{7E292182-348E-4DA0-8740-297B6F6A7C8B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{50E0E1EF-27FA-4779-B080-7AD292227C15}" name="Company"/>
+    <tableColumn id="2" xr3:uid="{4DF4A42A-9484-4CB8-A427-BD5001D68459}" name="Revenue"/>
+    <tableColumn id="3" xr3:uid="{2843EC45-1454-4ED5-920B-BF7592441F58}" name="Profit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1AD9ED95-18C7-417F-9134-7BD1DE1845DE}" name="Table4" displayName="Table4" ref="A1:E13" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="6">
+  <autoFilter ref="A1:E13" xr:uid="{1AD9ED95-18C7-417F-9134-7BD1DE1845DE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E3D79CBA-E424-476E-AD6D-8C38622F6025}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B849CC15-9321-4C09-B207-4D27D79C8A1F}" name="Category" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7466C596-F506-434E-AA69-789CBCE2A5D2}" name="Item" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{89AE061A-8D1E-4581-8BEC-83604147F824}" name="Amount" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{910E468A-9413-4E5E-A98D-24B9B69575DA}" name="Major Expense ?" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2686,10 +6967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186EF7D2-D928-4830-A6A7-E590049BE971}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G1" sqref="G1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2991,6 +7272,9 @@
         <v>1040</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
     <sortCondition ref="A6:A14"/>
@@ -3001,13 +7285,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3015,8 +7298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84078FF-2126-4CB4-89E3-C9C81F10C5B0}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3339,7 +7622,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3356,4 +7639,994 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30130E32-C000-4B3B-A016-003D2EE4B204}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9DE0C4-6DCF-4BD1-BDAC-5296D8A1B362}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E13" si="0">IF(D3&gt;=100,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f>SUMIF($B$3:$B$13,$B$6,$D$3:$D$13)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <f>SUMIF($B$3:$B$13,$B$4,$D$3:$D$13)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <f>SUMIF($B$3:$B$13,$B$3,$D$3:$D$13)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42729E87-07BC-4FE7-A3FD-A360F524DEB2}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E13" si="0">IF(D3&gt;=100,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40E2687-F93C-47E2-8D02-CBA8CC0C25FA}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>45413</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11">
+        <v>500</v>
+      </c>
+      <c r="E2" s="11" t="str">
+        <f>IF(D2&gt;=100,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>SUMIF(B$2:B$13,B5,D$2:D$13)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>45413</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11">
+        <v>100</v>
+      </c>
+      <c r="E3" s="11" t="str">
+        <f>IF(D3&gt;=100,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <f>SUMIF(B$2:B$13,B3,D$2:D$13)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>45413</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>50</v>
+      </c>
+      <c r="E4" s="13" t="str">
+        <f>IF(D4&gt;=100,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <f>SUMIF(B$2:B$13,B2,D$2:D$13)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45413</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>IF(D5&gt;=100,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13" t="str">
+        <f>IF(D6&gt;=100,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>45414</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13">
+        <v>200</v>
+      </c>
+      <c r="E7" s="13" t="str">
+        <f>IF(D7&gt;=100,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>45414</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11">
+        <v>30</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>IF(D8&gt;=100,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45413</v>
+      </c>
+      <c r="H8">
+        <f>SUMIF(Table4[Date],A2,Table4[Amount])</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>45414</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13" t="str">
+        <f>IF(D9&gt;=100,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45414</v>
+      </c>
+      <c r="H9">
+        <f>SUMIF(Table4[Date],A8,Table4[Amount])</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45414</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>IF(D10&gt;=100,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45415</v>
+      </c>
+      <c r="H10">
+        <f>SUMIF(Table4[Date],A12,Table4[Amount])</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>45414</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13" t="str">
+        <f>IF(D11&gt;=100,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>45415</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>90</v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f>IF(D12&gt;=100,"YES","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>45415</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13">
+        <v>70</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E12">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/CodeBasics-Excel-GitHub/PracticeSets/Excel_Basics-1_My_Expense_Budget.xlsx
+++ b/CodeBasics-Excel-GitHub/PracticeSets/Excel_Basics-1_My_Expense_Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shubham-Data-Analytics\Data-Analytics-GitHub\CodeBasics-Excel-GitHub\PracticeSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F15DA67-C398-4DA7-9867-7408FAB9F999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD4C3BD-1D02-4F3E-872C-3D4E5722D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{4813ED4B-01F4-46B2-90B4-B4775552A3A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="824" activeTab="7" xr2:uid="{4813ED4B-01F4-46B2-90B4-B4775552A3A2}"/>
   </bookViews>
   <sheets>
     <sheet name="May2024" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Charts 2" sheetId="4" r:id="rId4"/>
     <sheet name="Chart 3" sheetId="5" r:id="rId5"/>
     <sheet name="Chart 4" sheetId="6" r:id="rId6"/>
+    <sheet name="Income Statement" sheetId="7" r:id="rId7"/>
+    <sheet name="Employee Salary" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'May2024'!$A$2:$K$2</definedName>
@@ -34,8 +36,8 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId7"/>
-        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="50">
   <si>
     <t>Subway Sandwith</t>
   </si>
@@ -164,15 +166,61 @@
   <si>
     <t>NO</t>
   </si>
+  <si>
+    <t xml:space="preserve"> - Cost of Goods Sold (COGS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Selling, general and administrative (SG&amp;A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Depreciation and amortization</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Income %</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Laila</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Total Compensation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="[$₹-4009]\ #,##0.00"/>
+    <numFmt numFmtId="171" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +236,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +281,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -244,11 +311,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -264,52 +347,83 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="15">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -503,111 +617,25 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1229,6 +1257,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0851-484D-B4F4-26F702911D77}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1271,6 +1304,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0851-484D-B4F4-26F702911D77}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1313,6 +1351,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0851-484D-B4F4-26F702911D77}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6629,8 +6672,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF222CC3-F2AB-4D26-B7A4-D724D31BF359}" name="MyExpenses" displayName="MyExpenses" ref="A1:E14" totalsRowCount="1">
   <autoFilter ref="A1:E13" xr:uid="{DF222CC3-F2AB-4D26-B7A4-D724D31BF359}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5DA20084-509B-4269-A225-0ED3AF576070}" name="Date" totalsRowLabel="Total" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{1A6423D5-5B54-4F48-8C10-0A81788A91C7}" name="Category" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{5DA20084-509B-4269-A225-0ED3AF576070}" name="Date" totalsRowLabel="Total" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{1A6423D5-5B54-4F48-8C10-0A81788A91C7}" name="Category" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{DB00C74D-B328-4793-B628-EB0BE23D33E7}" name="Item" totalsRowFunction="count"/>
     <tableColumn id="4" xr3:uid="{0B7D84AA-C676-4203-B9FC-A71C7A990AF8}" name="Amount" totalsRowFunction="sum"/>
     <tableColumn id="5" xr3:uid="{9398C0CC-A231-44B1-A850-6246F2576D4A}" name="Major Expense ?">
@@ -6642,7 +6685,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E292182-348E-4DA0-8740-297B6F6A7C8B}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E292182-348E-4DA0-8740-297B6F6A7C8B}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:C6" xr:uid="{7E292182-348E-4DA0-8740-297B6F6A7C8B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{50E0E1EF-27FA-4779-B080-7AD292227C15}" name="Company"/>
@@ -6654,17 +6697,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1AD9ED95-18C7-417F-9134-7BD1DE1845DE}" name="Table4" displayName="Table4" ref="A1:E13" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1AD9ED95-18C7-417F-9134-7BD1DE1845DE}" name="Table4" displayName="Table4" ref="A1:E13" totalsRowShown="0" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:E13" xr:uid="{1AD9ED95-18C7-417F-9134-7BD1DE1845DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E3D79CBA-E424-476E-AD6D-8C38622F6025}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B849CC15-9321-4C09-B207-4D27D79C8A1F}" name="Category" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7466C596-F506-434E-AA69-789CBCE2A5D2}" name="Item" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{89AE061A-8D1E-4581-8BEC-83604147F824}" name="Amount" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{910E468A-9413-4E5E-A98D-24B9B69575DA}" name="Major Expense ?" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E3D79CBA-E424-476E-AD6D-8C38622F6025}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B849CC15-9321-4C09-B207-4D27D79C8A1F}" name="Category" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{7466C596-F506-434E-AA69-789CBCE2A5D2}" name="Item" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{89AE061A-8D1E-4581-8BEC-83604147F824}" name="Amount" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{910E468A-9413-4E5E-A98D-24B9B69575DA}" name="Major Expense ?" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6985,21 +7028,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="13"/>
+      <c r="J1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -7285,7 +7328,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E13">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7622,7 +7665,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7657,13 +7700,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7750,17 +7793,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -8014,7 +8057,7 @@
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E13">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8042,17 +8085,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -8303,7 +8346,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E13">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8316,7 +8359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40E2687-F93C-47E2-8D02-CBA8CC0C25FA}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -8332,19 +8375,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -8355,20 +8398,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>45413</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>500</v>
       </c>
-      <c r="E2" s="11" t="str">
-        <f>IF(D2&gt;=100,"YES","NO")</f>
+      <c r="E2" s="9" t="str">
+        <f t="shared" ref="E2:E12" si="0">IF(D2&gt;=100,"YES","NO")</f>
         <v>YES</v>
       </c>
       <c r="G2" t="s">
@@ -8380,20 +8423,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>45413</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>100</v>
       </c>
-      <c r="E3" s="11" t="str">
-        <f>IF(D3&gt;=100,"YES","NO")</f>
+      <c r="E3" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>YES</v>
       </c>
       <c r="G3" t="s">
@@ -8405,20 +8448,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>45413</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>50</v>
       </c>
-      <c r="E4" s="13" t="str">
-        <f>IF(D4&gt;=100,"YES","NO")</f>
+      <c r="E4" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>NO</v>
       </c>
       <c r="G4" t="s">
@@ -8430,56 +8473,56 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>45413</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="str">
-        <f>IF(D5&gt;=100,"YES","NO")</f>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>NO</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>45413</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="str">
-        <f>IF(D6&gt;=100,"YES","NO")</f>
+      <c r="E6" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>NO</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>45414</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>200</v>
       </c>
-      <c r="E7" s="13" t="str">
-        <f>IF(D7&gt;=100,"YES","NO")</f>
+      <c r="E7" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>YES</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -8490,20 +8533,20 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>45414</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="str">
-        <f>IF(D8&gt;=100,"YES","NO")</f>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>NO</v>
       </c>
       <c r="G8" s="1">
@@ -8515,20 +8558,20 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>45414</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>30</v>
       </c>
-      <c r="E9" s="13" t="str">
-        <f>IF(D9&gt;=100,"YES","NO")</f>
+      <c r="E9" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>NO</v>
       </c>
       <c r="G9" s="1">
@@ -8540,20 +8583,20 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>45414</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="str">
-        <f>IF(D10&gt;=100,"YES","NO")</f>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>NO</v>
       </c>
       <c r="G10" s="1">
@@ -8565,61 +8608,61 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>45414</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>20</v>
       </c>
-      <c r="E11" s="13" t="str">
-        <f>IF(D11&gt;=100,"YES","NO")</f>
+      <c r="E11" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>NO</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>45415</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>90</v>
       </c>
-      <c r="E12" s="11" t="str">
-        <f>IF(D12&gt;=100,"YES","NO")</f>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>NO</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>45415</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>70</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E12">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8629,4 +8672,296 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D703D4-30D1-4C07-AF61-96F98DF270EC}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16">
+        <v>45046</v>
+      </c>
+      <c r="C2" s="16">
+        <v>45077</v>
+      </c>
+      <c r="D2" s="16">
+        <v>45107</v>
+      </c>
+      <c r="E2" s="16">
+        <v>45138</v>
+      </c>
+      <c r="F2" s="16">
+        <v>45169</v>
+      </c>
+      <c r="G2" s="16">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="20">
+        <v>100</v>
+      </c>
+      <c r="C3" s="20">
+        <v>85</v>
+      </c>
+      <c r="D3" s="20">
+        <v>87</v>
+      </c>
+      <c r="E3" s="20">
+        <v>73</v>
+      </c>
+      <c r="F3" s="20">
+        <v>68</v>
+      </c>
+      <c r="G3" s="20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="20">
+        <v>42</v>
+      </c>
+      <c r="C4" s="20">
+        <v>37</v>
+      </c>
+      <c r="D4" s="20">
+        <v>38</v>
+      </c>
+      <c r="E4" s="20">
+        <v>32</v>
+      </c>
+      <c r="F4" s="20">
+        <v>18</v>
+      </c>
+      <c r="G4" s="20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="20">
+        <v>12</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4</v>
+      </c>
+      <c r="E5" s="20">
+        <v>5</v>
+      </c>
+      <c r="F5" s="20">
+        <v>8</v>
+      </c>
+      <c r="G5" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="20">
+        <v>17</v>
+      </c>
+      <c r="C6" s="20">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20">
+        <v>10</v>
+      </c>
+      <c r="G6" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="20">
+        <v>29</v>
+      </c>
+      <c r="C7" s="20">
+        <v>32</v>
+      </c>
+      <c r="D7" s="20">
+        <v>38</v>
+      </c>
+      <c r="E7" s="20">
+        <v>24</v>
+      </c>
+      <c r="F7" s="20">
+        <v>32</v>
+      </c>
+      <c r="G7" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="17">
+        <f>B7/B3</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" ref="C8:G8" si="0">C7/C3</f>
+        <v>0.37647058823529411</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.43678160919540232</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.32876712328767121</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43F35F8-A10B-4958-BDA3-ABA0081FB70C}">
+  <dimension ref="A3:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="22">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="22">
+        <v>50000</v>
+      </c>
+      <c r="D4" s="22">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="22">
+        <v>150000</v>
+      </c>
+      <c r="C5" s="22">
+        <v>40000</v>
+      </c>
+      <c r="D5" s="22">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="22">
+        <v>87000</v>
+      </c>
+      <c r="C6" s="22">
+        <v>23000</v>
+      </c>
+      <c r="D6" s="22">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="22">
+        <v>125000</v>
+      </c>
+      <c r="C7" s="22">
+        <v>45000</v>
+      </c>
+      <c r="D7" s="22">
+        <v>170000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="wDEeoRYVfJVhuwBQOh3WM/YjZltCzBjdKB81Zc3jxfQjcNFBUawdJwyvMpQIFNwcE/Xxmx4EMem/ZFLHEmhBzg==" saltValue="uMMNSuhaDqsu74yiq8sfUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>